--- a/resources/template/_invoice_nbrussia.xlsx
+++ b/resources/template/_invoice_nbrussia.xlsx
@@ -468,122 +468,122 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,7 +892,7 @@
   <dimension ref="A1:BE43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="BJ10" sqref="BJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -914,14 +914,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
@@ -929,74 +929,74 @@
         <v>51</v>
       </c>
       <c r="I1" s="32"/>
-      <c r="J1" s="25"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>55</v>
       </c>
       <c r="I2" s="34"/>
-      <c r="J2" s="26"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="26"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="21" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>56</v>
       </c>
       <c r="I4" s="34"/>
-      <c r="J4" s="27"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
       <c r="J5" s="6" t="s">
@@ -1018,10 +1018,10 @@
       <c r="J7" s="29"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="30" t="s">
         <v>49</v>
       </c>
@@ -1034,10 +1034,10 @@
       <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="30" t="s">
         <v>36</v>
       </c>
@@ -1050,26 +1050,26 @@
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1090,12 +1090,12 @@
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="40">
         <v>2</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="7">
         <v>3</v>
       </c>
@@ -1112,340 +1112,348 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="16" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="50" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="15" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="12" x14ac:dyDescent="0.25">
       <c r="H18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="44"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="12" x14ac:dyDescent="0.25">
       <c r="H19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="44"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="12" x14ac:dyDescent="0.25">
       <c r="H20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="44"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
     </row>
     <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
     </row>
     <row r="39" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" ht="12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="H40" s="45" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="H40" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" ht="12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="43"/>
+      <c r="B42" s="13"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
     </row>
     <row r="43" spans="1:10" ht="12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="H43" s="45" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="H43" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="A16:F16"/>
@@ -1459,28 +1467,20 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resources/template/_invoice_nbrussia.xlsx
+++ b/resources/template/_invoice_nbrussia.xlsx
@@ -36,9 +36,6 @@
     <t>КПП</t>
   </si>
   <si>
-    <t>Отсканируйте для оплаты</t>
-  </si>
-  <si>
     <t>Получатель</t>
   </si>
   <si>
@@ -198,13 +195,16 @@
   </si>
   <si>
     <t xml:space="preserve">   1. Настоящий счёт, далее счёт-договор является офертой ООО "Кёнигс.ру" (далее Исполнитель) Заказчику на оказание услуг по поручению Заказчика, в т.ч.: выполнить выкуп заказываемого товара, осуществить доставку до пункта Б, согласно заявке и передать в собственность Покупателю обувь, одежду и другие товары в количестве и ассортименте (далее по тексту «Товар») по согласованным заявкам Заказчика, а Заказчик обязуется принять этот Товар и уплатить за него определенную в счетах Исполнителя сумму включая стоимость предоставляемой услуги отраженной в счёте.</t>
+  </si>
+  <si>
+    <t>Стоимость доставки включена в общую сумму! В счете для товаров устанавливается скидка в размере указанной стоимости доставки!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -247,13 +247,26 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -443,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -471,6 +484,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -547,14 +572,26 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -564,26 +601,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE43"/>
+  <dimension ref="A1:BE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BJ10" sqref="BJ10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="BI26" sqref="BI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -914,188 +933,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="A1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="36"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="26"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="H4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="38"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="13" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="47">
         <v>2</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="7">
         <v>3</v>
       </c>
@@ -1113,325 +1130,339 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48" t="s">
+      <c r="G15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="H15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="I15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="J15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="50" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="12" x14ac:dyDescent="0.25">
       <c r="H18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="12" x14ac:dyDescent="0.25">
       <c r="H19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="12" x14ac:dyDescent="0.25">
       <c r="H20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" ht="12" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="26" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="25" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="40" spans="1:10" ht="12" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="39" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="H39" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="D40" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="H40" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="H40" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" ht="12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
+      <c r="D41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="H41" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="D43" s="14" t="s">
+      <c r="A43" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" ht="12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="D44" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="H44" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="H43" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="G2:G3"/>
@@ -1454,33 +1485,34 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resources/template/_invoice_nbrussia.xlsx
+++ b/resources/template/_invoice_nbrussia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Server\localhost\nordihome\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\localhost\nordihome\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5892"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="_invoice_user_01" sheetId="2" r:id="rId1"/>
@@ -63,12 +63,6 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>Без налога (НДС)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Всего к оплате:</t>
   </si>
   <si>
@@ -198,6 +192,12 @@
   </si>
   <si>
     <t>Стоимость доставки включена в общую сумму! В счете для товаров устанавливается скидка в размере указанной стоимости доставки!</t>
+  </si>
+  <si>
+    <t>{vat_caption}</t>
+  </si>
+  <si>
+    <t>{vat_value}</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -497,7 +497,106 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -507,102 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,182 +914,182 @@
   <dimension ref="A1:BE44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="BI26" sqref="BI26"/>
+      <selection activeCell="H19" sqref="H19:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="55" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="56" max="57" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="2.140625" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.28515625" style="1"/>
+    <col min="56" max="57" width="9.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="2.1640625" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="A1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="36"/>
+      <c r="H1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="35"/>
       <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="48" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="38"/>
+      <c r="H2" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="37"/>
       <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="51"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="27"/>
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="38"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+    <row r="7" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="9" spans="1:10" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+        <v>29</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+        <v>28</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-    </row>
-    <row r="13" spans="1:10" ht="12" x14ac:dyDescent="0.2">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1107,12 +1110,12 @@
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="7">
         <v>3</v>
       </c>
@@ -1129,362 +1132,354 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="G15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="14" t="s">
+      <c r="H15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="I15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="J15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="49"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="49"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="18" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="H18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="H19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="27" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+    </row>
+    <row r="24" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+    </row>
+    <row r="26" spans="1:10" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="H20" s="9" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="27"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-    </row>
-    <row r="26" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-    </row>
-    <row r="28" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-    </row>
-    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+    </row>
+    <row r="34" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+    </row>
+    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-    </row>
-    <row r="34" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-    </row>
-    <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="40" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="17"/>
+      <c r="B40" s="48"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="H40" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-    </row>
-    <row r="41" spans="1:10" ht="12" x14ac:dyDescent="0.25">
+      <c r="H40" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="H41" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="H41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" ht="12" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="48"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:10" ht="12" x14ac:dyDescent="0.25">
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="D44" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="H44" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
+      <c r="D44" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="H44" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="A16:F16"/>
@@ -1499,20 +1494,28 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
